--- a/01应用宝App信息/result/tencent_games.xlsx
+++ b/01应用宝App信息/result/tencent_games.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="520">
   <si>
     <t>key_word</t>
   </si>
@@ -34,6 +34,9 @@
     <t>王者荣耀</t>
   </si>
   <si>
+    <t>刺激战场</t>
+  </si>
+  <si>
     <t>王者营地</t>
   </si>
   <si>
@@ -253,6 +256,177 @@
     <t>TaiQ</t>
   </si>
   <si>
+    <t>和平精英</t>
+  </si>
+  <si>
+    <t>第五人格（生存类独立游戏）</t>
+  </si>
+  <si>
+    <t>小小突击队</t>
+  </si>
+  <si>
+    <t>割绳子2腾讯版</t>
+  </si>
+  <si>
+    <t>全民突击</t>
+  </si>
+  <si>
+    <t>最高警戒（原共和国之辉）</t>
+  </si>
+  <si>
+    <t>腾讯游戏管家-LOL台服加速</t>
+  </si>
+  <si>
+    <t>战场女神</t>
+  </si>
+  <si>
+    <t>剑神传说：御剑江湖</t>
+  </si>
+  <si>
+    <t>三国杀</t>
+  </si>
+  <si>
+    <t>COK列王的纷争</t>
+  </si>
+  <si>
+    <t>超级群英传</t>
+  </si>
+  <si>
+    <t>不良人(定时送红包)</t>
+  </si>
+  <si>
+    <t>率土之滨</t>
+  </si>
+  <si>
+    <t>神仙与妖怪</t>
+  </si>
+  <si>
+    <t>轩辕传奇：新职业-轩辕公测</t>
+  </si>
+  <si>
+    <t>北凉悍刀行-送Q币</t>
+  </si>
+  <si>
+    <t>万王之王3D</t>
+  </si>
+  <si>
+    <t>幻剑情缘：三生三世</t>
+  </si>
+  <si>
+    <t>乱轰三国志-军团联盟</t>
+  </si>
+  <si>
+    <t>坦克前线</t>
+  </si>
+  <si>
+    <t>300大作战</t>
+  </si>
+  <si>
+    <t>太极熊猫2</t>
+  </si>
+  <si>
+    <t>暗黑之光之奇迹觉醒</t>
+  </si>
+  <si>
+    <t>刺客：山海经异兽传说</t>
+  </si>
+  <si>
+    <t>神谕幻想：魔幻世界</t>
+  </si>
+  <si>
+    <t>配音变声器</t>
+  </si>
+  <si>
+    <t>十字绣</t>
+  </si>
+  <si>
+    <t>装甲荣耀</t>
+  </si>
+  <si>
+    <t>逍遥三国</t>
+  </si>
+  <si>
+    <t>西楚霸业</t>
+  </si>
+  <si>
+    <t>有剑气</t>
+  </si>
+  <si>
+    <t>语音包变声器软件</t>
+  </si>
+  <si>
+    <t>时空猎人-新角色</t>
+  </si>
+  <si>
+    <t>三国帮：新三国策略卡牌塔防小游戏</t>
+  </si>
+  <si>
+    <t>他趣</t>
+  </si>
+  <si>
+    <t>拳皇98 终极之战OL--腾讯第一街机版手游</t>
+  </si>
+  <si>
+    <t>新闻资讯</t>
+  </si>
+  <si>
+    <t>抱抱直播</t>
+  </si>
+  <si>
+    <t>战旗直播</t>
+  </si>
+  <si>
+    <t>爱奇艺VR</t>
+  </si>
+  <si>
+    <t>QQ炫舞手游</t>
+  </si>
+  <si>
+    <t>金手指捕鱼（千炮版）</t>
+  </si>
+  <si>
+    <t>捕鱼大赛</t>
+  </si>
+  <si>
+    <t>狼人世界</t>
+  </si>
+  <si>
+    <t>太极熊猫（魅影狐仙）</t>
+  </si>
+  <si>
+    <t>蜀山四川麻将</t>
+  </si>
+  <si>
+    <t>拳皇命运：Angelababy也来KO</t>
+  </si>
+  <si>
+    <t>梦幻家园（单机消除）</t>
+  </si>
+  <si>
+    <t>熊出没之熊大快跑</t>
+  </si>
+  <si>
+    <t>主宰传奇</t>
+  </si>
+  <si>
+    <t>全城跑酷</t>
+  </si>
+  <si>
+    <t>天使纪元</t>
+  </si>
+  <si>
+    <t>天天捕鱼达人</t>
+  </si>
+  <si>
+    <t>万人斗地主-抢红包</t>
+  </si>
+  <si>
+    <t>街机欢乐捕鱼</t>
+  </si>
+  <si>
+    <t>大乱斗</t>
+  </si>
+  <si>
     <t>com.tencent.tmgp.sgame</t>
   </si>
   <si>
@@ -475,6 +649,177 @@
     <t>com.tencent.phone.trbt</t>
   </si>
   <si>
+    <t>com.tencent.tmgp.pubgmhd</t>
+  </si>
+  <si>
+    <t>com.tencent.tmgp.dwrg</t>
+  </si>
+  <si>
+    <t>com.tencent.tmgp.xxtjd</t>
+  </si>
+  <si>
+    <t>com.yodo1tier1.ctr2.TXWXYY</t>
+  </si>
+  <si>
+    <t>com.tencent.WeFire</t>
+  </si>
+  <si>
+    <t>com.tencent.tmgp.zgjjhd</t>
+  </si>
+  <si>
+    <t>com.tencent.gamestick</t>
+  </si>
+  <si>
+    <t>com.tencent.tmgp.lzyxzcns</t>
+  </si>
+  <si>
+    <t>com.tencent.tmgp.jscs</t>
+  </si>
+  <si>
+    <t>bf.sgs.hdexp</t>
+  </si>
+  <si>
+    <t>com.tencent.tmgp.cokqq</t>
+  </si>
+  <si>
+    <t>com.tencent.tmgp.cjqyz.kkk5</t>
+  </si>
+  <si>
+    <t>com.tencent.tmgp.buliangren</t>
+  </si>
+  <si>
+    <t>com.tencent.tmgp.stzb</t>
+  </si>
+  <si>
+    <t>com.tencent.tmgp.leju.ssyyg</t>
+  </si>
+  <si>
+    <t>com.tencent.tmgp.xymobile</t>
+  </si>
+  <si>
+    <t>com.tencent.tmgp.blhdx</t>
+  </si>
+  <si>
+    <t>com.tencent.wok</t>
+  </si>
+  <si>
+    <t>com.tencent.tmgp.dkmhjqy</t>
+  </si>
+  <si>
+    <t>com.tencent.tmgp.luanhongsgz</t>
+  </si>
+  <si>
+    <t>com.tencent.tmgp.hjdgfc</t>
+  </si>
+  <si>
+    <t>com.tencent.tmgp.jumpw</t>
+  </si>
+  <si>
+    <t>com.tencent.tmgp.tjxm2sq</t>
+  </si>
+  <si>
+    <t>com.tencent.tmgp.ahzgzqjjxsdyyb</t>
+  </si>
+  <si>
+    <t>com.tencent.tmgp.zrd.shjjjsmzyxckdgyyb</t>
+  </si>
+  <si>
+    <t>com.tencent.tmgp.qxsyhx</t>
+  </si>
+  <si>
+    <t>com.tingniu.vochanger</t>
+  </si>
+  <si>
+    <t>com.tomatojoy.szx</t>
+  </si>
+  <si>
+    <t>com.tencent.tmgp.yywl.zjry</t>
+  </si>
+  <si>
+    <t>com.tencent.tmgp.sggj2</t>
+  </si>
+  <si>
+    <t>com.tencent.tmgp.jfylxcby</t>
+  </si>
+  <si>
+    <t>com.youjianqi</t>
+  </si>
+  <si>
+    <t>cn.shredjz.soundxmaker</t>
+  </si>
+  <si>
+    <t>com.yinhan.hunter.tx</t>
+  </si>
+  <si>
+    <t>com.tencent.tmgp.rysgb</t>
+  </si>
+  <si>
+    <t>com.xingjiabi.shengsheng</t>
+  </si>
+  <si>
+    <t>com.tencent.tmgp.kof98</t>
+  </si>
+  <si>
+    <t>com.yidian.xiaomi</t>
+  </si>
+  <si>
+    <t>cn.myhug.baobao</t>
+  </si>
+  <si>
+    <t>com.gameabc.zhanqiAndroid</t>
+  </si>
+  <si>
+    <t>com.iqiyi.ivrcinema.cb</t>
+  </si>
+  <si>
+    <t>com.tencent.tmgp.qqx5</t>
+  </si>
+  <si>
+    <t>com.tencent.tmgp.goldfinger</t>
+  </si>
+  <si>
+    <t>com.tencent.tmgp.fishgame</t>
+  </si>
+  <si>
+    <t>com.wodidashi.wolf</t>
+  </si>
+  <si>
+    <t>com.tencent.tmgp.tjxm</t>
+  </si>
+  <si>
+    <t>com.tencent.tmgp.sichuan</t>
+  </si>
+  <si>
+    <t>com.tencent.kof</t>
+  </si>
+  <si>
+    <t>com.tencent.tmgp.ledou.mhjy</t>
+  </si>
+  <si>
+    <t>com.joym.xiongdakuaipao.yyb</t>
+  </si>
+  <si>
+    <t>com.tencent.tmgp.times.zzcq1</t>
+  </si>
+  <si>
+    <t>com.tencent.tmgp.wxqcpk</t>
+  </si>
+  <si>
+    <t>com.tencent.tmgp.tsjyyz</t>
+  </si>
+  <si>
+    <t>com.tencent.tmgp.hnwhkj.cyd.tiantianbuyudaren</t>
+  </si>
+  <si>
+    <t>com.tencent.tmgp.wrddz</t>
+  </si>
+  <si>
+    <t>com.tencent.tmgp.by002</t>
+  </si>
+  <si>
+    <t>com.tencent.tmgp.herolegend</t>
+  </si>
+  <si>
     <t>12亿</t>
   </si>
   <si>
@@ -496,7 +841,7 @@
     <t>762万</t>
   </si>
   <si>
-    <t>1879万</t>
+    <t>1880万</t>
   </si>
   <si>
     <t>221万</t>
@@ -511,7 +856,7 @@
     <t>7413万</t>
   </si>
   <si>
-    <t>3421万</t>
+    <t>3422万</t>
   </si>
   <si>
     <t>234万</t>
@@ -523,7 +868,7 @@
     <t>1120万</t>
   </si>
   <si>
-    <t>9473万</t>
+    <t>9483万</t>
   </si>
   <si>
     <t>22万</t>
@@ -559,7 +904,7 @@
     <t>5.1万</t>
   </si>
   <si>
-    <t>1107</t>
+    <t>1111</t>
   </si>
   <si>
     <t>1.5亿</t>
@@ -574,7 +919,7 @@
     <t>222万</t>
   </si>
   <si>
-    <t>3774万</t>
+    <t>3775万</t>
   </si>
   <si>
     <t>1.6亿</t>
@@ -583,7 +928,7 @@
     <t>4192万</t>
   </si>
   <si>
-    <t>6159万</t>
+    <t>6161万</t>
   </si>
   <si>
     <t>1741万</t>
@@ -592,10 +937,10 @@
     <t>1327万</t>
   </si>
   <si>
-    <t>3568万</t>
-  </si>
-  <si>
-    <t>2235万</t>
+    <t>3569万</t>
+  </si>
+  <si>
+    <t>2236万</t>
   </si>
   <si>
     <t>814万</t>
@@ -604,10 +949,10 @@
     <t>715万</t>
   </si>
   <si>
-    <t>5403万</t>
-  </si>
-  <si>
-    <t>429万</t>
+    <t>5404万</t>
+  </si>
+  <si>
+    <t>430万</t>
   </si>
   <si>
     <t>450万</t>
@@ -640,10 +985,10 @@
     <t>158万</t>
   </si>
   <si>
-    <t>1162万</t>
-  </si>
-  <si>
-    <t>112万</t>
+    <t>1164万</t>
+  </si>
+  <si>
+    <t>113万</t>
   </si>
   <si>
     <t>173万</t>
@@ -688,6 +1033,156 @@
     <t>7.8万</t>
   </si>
   <si>
+    <t>2.8亿</t>
+  </si>
+  <si>
+    <t>3835万</t>
+  </si>
+  <si>
+    <t>371万</t>
+  </si>
+  <si>
+    <t>948万</t>
+  </si>
+  <si>
+    <t>9417万</t>
+  </si>
+  <si>
+    <t>337万</t>
+  </si>
+  <si>
+    <t>618万</t>
+  </si>
+  <si>
+    <t>2938</t>
+  </si>
+  <si>
+    <t>1.1亿</t>
+  </si>
+  <si>
+    <t>2132万</t>
+  </si>
+  <si>
+    <t>724万</t>
+  </si>
+  <si>
+    <t>293万</t>
+  </si>
+  <si>
+    <t>274万</t>
+  </si>
+  <si>
+    <t>307万</t>
+  </si>
+  <si>
+    <t>390万</t>
+  </si>
+  <si>
+    <t>331万</t>
+  </si>
+  <si>
+    <t>138万</t>
+  </si>
+  <si>
+    <t>179万</t>
+  </si>
+  <si>
+    <t>159万</t>
+  </si>
+  <si>
+    <t>68万</t>
+  </si>
+  <si>
+    <t>65万</t>
+  </si>
+  <si>
+    <t>98万</t>
+  </si>
+  <si>
+    <t>34万</t>
+  </si>
+  <si>
+    <t>30万</t>
+  </si>
+  <si>
+    <t>201万</t>
+  </si>
+  <si>
+    <t>19万</t>
+  </si>
+  <si>
+    <t>7188</t>
+  </si>
+  <si>
+    <t>312</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>1.3亿</t>
+  </si>
+  <si>
+    <t>2450万</t>
+  </si>
+  <si>
+    <t>2647万</t>
+  </si>
+  <si>
+    <t>8644万</t>
+  </si>
+  <si>
+    <t>900万</t>
+  </si>
+  <si>
+    <t>1056万</t>
+  </si>
+  <si>
+    <t>546万</t>
+  </si>
+  <si>
+    <t>1273万</t>
+  </si>
+  <si>
+    <t>249万</t>
+  </si>
+  <si>
+    <t>1767万</t>
+  </si>
+  <si>
+    <t>253万</t>
+  </si>
+  <si>
+    <t>432万</t>
+  </si>
+  <si>
+    <t>439万</t>
+  </si>
+  <si>
+    <t>156万</t>
+  </si>
+  <si>
+    <t>264万</t>
+  </si>
+  <si>
+    <t>228万</t>
+  </si>
+  <si>
+    <t>90万</t>
+  </si>
+  <si>
+    <t>191万</t>
+  </si>
+  <si>
+    <t>145万</t>
+  </si>
+  <si>
+    <t>95万</t>
+  </si>
+  <si>
+    <t>82万</t>
+  </si>
+  <si>
     <t>编辑推荐：2021年度新版本【破晓】</t>
   </si>
   <si>
@@ -908,6 +1403,177 @@
   </si>
   <si>
     <t>编辑推荐：腾讯智能机器人APP</t>
+  </si>
+  <si>
+    <t>编辑推荐：腾讯光子工作室群自研打造的军事竞赛体验手游。</t>
+  </si>
+  <si>
+    <t>编辑推荐：网易首款非对称对抗竞技手游</t>
+  </si>
+  <si>
+    <t>编辑推荐：横版射击手游，海量英雄超爽技能</t>
+  </si>
+  <si>
+    <t>编辑推荐：风靡全球益智经典续作</t>
+  </si>
+  <si>
+    <t>编辑推荐：腾讯首款3D枪战手游</t>
+  </si>
+  <si>
+    <t>编辑推荐：首款RTS全自由操控军事手游</t>
+  </si>
+  <si>
+    <t>编辑推荐：海内外手游免费加速</t>
+  </si>
+  <si>
+    <t>编辑推荐：限时下载送150抽</t>
+  </si>
+  <si>
+    <t>编辑推荐：一款唯美仙侠风格的横版ARPG手游</t>
+  </si>
+  <si>
+    <t>编辑推荐：新国战2020-全面战争全网首发</t>
+  </si>
+  <si>
+    <t>编辑推荐：六周年嘉年华盛大开启</t>
+  </si>
+  <si>
+    <t>编辑推荐：千人争霸，万人国战！</t>
+  </si>
+  <si>
+    <t>编辑推荐：湿妹双修，18岁以下慎入！</t>
+  </si>
+  <si>
+    <t>编辑推荐：牛年春节活动全新上线</t>
+  </si>
+  <si>
+    <t>编辑推荐：正版中国古神话故事山海经改编</t>
+  </si>
+  <si>
+    <t>编辑推荐：山海经大世界，玄幻MMO战斗手游</t>
+  </si>
+  <si>
+    <t>编辑推荐：跨服争霸战场全面开启</t>
+  </si>
+  <si>
+    <t>编辑推荐：自由开拓魔幻大世界</t>
+  </si>
+  <si>
+    <t>编辑推荐：道法转乾坤，手书封魔录</t>
+  </si>
+  <si>
+    <t>编辑推荐：年度资料片“天命转生”来袭</t>
+  </si>
+  <si>
+    <t>编辑推荐：不服来战，体验真实版二战战场</t>
+  </si>
+  <si>
+    <t>编辑推荐：二次元5V5公平对战手游</t>
+  </si>
+  <si>
+    <t>编辑推荐：多角色ARPG手游</t>
+  </si>
+  <si>
+    <t>编辑推荐：魔幻世界，奇迹手游</t>
+  </si>
+  <si>
+    <t>编辑推荐：山海经异兽来袭，无限吞噬</t>
+  </si>
+  <si>
+    <t>编辑推荐：无束缚3D西方幻想大世界手游</t>
+  </si>
+  <si>
+    <t>编辑推荐：变声器加录音软件语音备忘录</t>
+  </si>
+  <si>
+    <t>编辑推荐：像素版梦幻花园沉浸于我的世界</t>
+  </si>
+  <si>
+    <t>编辑推荐：二战背景传统卡牌坦克对轰手游！</t>
+  </si>
+  <si>
+    <t>编辑推荐：创新战斗，妹子很多的三国游戏</t>
+  </si>
+  <si>
+    <t>编辑推荐：高爆率单职业3D热血私人专服传奇</t>
+  </si>
+  <si>
+    <t>编辑推荐：年轻人的动漫游戏社区</t>
+  </si>
+  <si>
+    <t>编辑推荐：有趣语音包轻松使用</t>
+  </si>
+  <si>
+    <t>编辑推荐：格斗游戏顶流，新团本上线</t>
+  </si>
+  <si>
+    <t>编辑推荐：热血刺激的三国题材策略游戏</t>
+  </si>
+  <si>
+    <t>编辑推荐：找喜欢的人做刺激的事</t>
+  </si>
+  <si>
+    <t>编辑推荐：SNK正版授权拳皇卡牌手游</t>
+  </si>
+  <si>
+    <t>编辑推荐：海量新闻头条，每天推荐一点</t>
+  </si>
+  <si>
+    <t>编辑推荐：高颜值直播交友平台</t>
+  </si>
+  <si>
+    <t>编辑推荐：天生爱玩，游戏至上！</t>
+  </si>
+  <si>
+    <t>编辑推荐：海量VR视频，精选3D大片</t>
+  </si>
+  <si>
+    <t>编辑推荐：原版IP唯一正版</t>
+  </si>
+  <si>
+    <t>编辑推荐：爆率高打鱼爽，经典高爆版捕鱼</t>
+  </si>
+  <si>
+    <t>编辑推荐：快来和小伙伴一起共享核弹头道具</t>
+  </si>
+  <si>
+    <t>编辑推荐：狼人逻辑推理游戏，嗨翻全场</t>
+  </si>
+  <si>
+    <t>编辑推荐：熊猫文化精品，让你爱上战斗！</t>
+  </si>
+  <si>
+    <t>编辑推荐：约局免费玩，麻将棋牌游戏合集</t>
+  </si>
+  <si>
+    <t>编辑推荐：正版拳皇格斗手游</t>
+  </si>
+  <si>
+    <t>编辑推荐：体验消除乐趣，装扮家园灯会</t>
+  </si>
+  <si>
+    <t>编辑推荐：熊出没竞速跑酷童话中的欢樂之旅</t>
+  </si>
+  <si>
+    <t>编辑推荐：一刀破晓重铸霸业</t>
+  </si>
+  <si>
+    <t>编辑推荐：最具挑战性的小清新风格跑酷游戏</t>
+  </si>
+  <si>
+    <t>编辑推荐：跨服5V5，新赛季开启！</t>
+  </si>
+  <si>
+    <t>编辑推荐：捕鱼真人街机达人返现金千炮万炮</t>
+  </si>
+  <si>
+    <t>编辑推荐：与各路高手同台竞技</t>
+  </si>
+  <si>
+    <t>编辑推荐：捕鱼 捕鱼达人赢话费</t>
+  </si>
+  <si>
+    <t>编辑推荐：火热动作游戏《大乱斗》强势来袭</t>
   </si>
 </sst>
 </file>
@@ -1265,7 +1931,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F75"/>
+  <dimension ref="A1:F132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1299,13 +1965,13 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="E2" t="s">
-        <v>153</v>
+        <v>268</v>
       </c>
       <c r="F2" t="s">
-        <v>224</v>
+        <v>389</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1316,16 +1982,16 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="E3" t="s">
-        <v>154</v>
+        <v>269</v>
       </c>
       <c r="F3" t="s">
-        <v>225</v>
+        <v>390</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1336,16 +2002,16 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="E4" t="s">
-        <v>155</v>
+        <v>270</v>
       </c>
       <c r="F4" t="s">
-        <v>226</v>
+        <v>391</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1356,16 +2022,16 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>82</v>
+        <v>140</v>
       </c>
       <c r="E5" t="s">
-        <v>156</v>
+        <v>271</v>
       </c>
       <c r="F5" t="s">
-        <v>227</v>
+        <v>392</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1376,16 +2042,16 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
       <c r="E6" t="s">
-        <v>157</v>
+        <v>272</v>
       </c>
       <c r="F6" t="s">
-        <v>228</v>
+        <v>393</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1396,16 +2062,16 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>84</v>
+        <v>142</v>
       </c>
       <c r="E7" t="s">
-        <v>158</v>
+        <v>273</v>
       </c>
       <c r="F7" t="s">
-        <v>229</v>
+        <v>394</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1416,16 +2082,16 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>85</v>
+        <v>143</v>
       </c>
       <c r="E8" t="s">
-        <v>159</v>
+        <v>274</v>
       </c>
       <c r="F8" t="s">
-        <v>230</v>
+        <v>395</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1436,16 +2102,16 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>86</v>
+        <v>144</v>
       </c>
       <c r="E9" t="s">
-        <v>160</v>
+        <v>275</v>
       </c>
       <c r="F9" t="s">
-        <v>231</v>
+        <v>396</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1456,16 +2122,16 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>87</v>
+        <v>145</v>
       </c>
       <c r="E10" t="s">
-        <v>161</v>
+        <v>276</v>
       </c>
       <c r="F10" t="s">
-        <v>232</v>
+        <v>397</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1476,16 +2142,16 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>88</v>
+        <v>146</v>
       </c>
       <c r="E11" t="s">
-        <v>162</v>
+        <v>277</v>
       </c>
       <c r="F11" t="s">
-        <v>233</v>
+        <v>398</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1496,16 +2162,16 @@
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>89</v>
+        <v>147</v>
       </c>
       <c r="E12" t="s">
-        <v>163</v>
+        <v>278</v>
       </c>
       <c r="F12" t="s">
-        <v>234</v>
+        <v>399</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1516,16 +2182,16 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D13" t="s">
-        <v>90</v>
+        <v>148</v>
       </c>
       <c r="E13" t="s">
-        <v>164</v>
+        <v>279</v>
       </c>
       <c r="F13" t="s">
-        <v>235</v>
+        <v>400</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1536,16 +2202,16 @@
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D14" t="s">
-        <v>91</v>
+        <v>149</v>
       </c>
       <c r="E14" t="s">
-        <v>165</v>
+        <v>280</v>
       </c>
       <c r="F14" t="s">
-        <v>236</v>
+        <v>401</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1556,16 +2222,16 @@
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D15" t="s">
-        <v>92</v>
+        <v>150</v>
       </c>
       <c r="E15" t="s">
-        <v>166</v>
+        <v>281</v>
       </c>
       <c r="F15" t="s">
-        <v>237</v>
+        <v>402</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1576,16 +2242,16 @@
         <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D16" t="s">
-        <v>93</v>
+        <v>151</v>
       </c>
       <c r="E16" t="s">
-        <v>167</v>
+        <v>282</v>
       </c>
       <c r="F16" t="s">
-        <v>238</v>
+        <v>403</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1596,16 +2262,16 @@
         <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D17" t="s">
-        <v>94</v>
+        <v>152</v>
       </c>
       <c r="E17" t="s">
-        <v>168</v>
+        <v>283</v>
       </c>
       <c r="F17" t="s">
-        <v>239</v>
+        <v>404</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1616,16 +2282,16 @@
         <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D18" t="s">
-        <v>95</v>
+        <v>153</v>
       </c>
       <c r="E18" t="s">
-        <v>169</v>
+        <v>284</v>
       </c>
       <c r="F18" t="s">
-        <v>240</v>
+        <v>405</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1636,16 +2302,16 @@
         <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D19" t="s">
-        <v>96</v>
+        <v>154</v>
       </c>
       <c r="E19" t="s">
-        <v>170</v>
+        <v>285</v>
       </c>
       <c r="F19" t="s">
-        <v>241</v>
+        <v>406</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1656,16 +2322,16 @@
         <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D20" t="s">
-        <v>97</v>
+        <v>155</v>
       </c>
       <c r="E20" t="s">
-        <v>171</v>
+        <v>286</v>
       </c>
       <c r="F20" t="s">
-        <v>242</v>
+        <v>407</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1676,16 +2342,16 @@
         <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>98</v>
+        <v>156</v>
       </c>
       <c r="E21" t="s">
-        <v>172</v>
+        <v>287</v>
       </c>
       <c r="F21" t="s">
-        <v>243</v>
+        <v>408</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1696,16 +2362,16 @@
         <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>99</v>
+        <v>157</v>
       </c>
       <c r="E22" t="s">
-        <v>172</v>
+        <v>287</v>
       </c>
       <c r="F22" t="s">
-        <v>244</v>
+        <v>409</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1716,16 +2382,16 @@
         <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>100</v>
+        <v>158</v>
       </c>
       <c r="E23" t="s">
-        <v>173</v>
+        <v>288</v>
       </c>
       <c r="F23" t="s">
-        <v>245</v>
+        <v>410</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1736,16 +2402,16 @@
         <v>5</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D24" t="s">
-        <v>101</v>
+        <v>159</v>
       </c>
       <c r="E24" t="s">
-        <v>174</v>
+        <v>289</v>
       </c>
       <c r="F24" t="s">
-        <v>246</v>
+        <v>411</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1756,16 +2422,16 @@
         <v>5</v>
       </c>
       <c r="C25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D25" t="s">
-        <v>102</v>
+        <v>160</v>
       </c>
       <c r="E25" t="s">
-        <v>175</v>
+        <v>290</v>
       </c>
       <c r="F25" t="s">
-        <v>247</v>
+        <v>412</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1776,16 +2442,16 @@
         <v>5</v>
       </c>
       <c r="C26" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D26" t="s">
-        <v>103</v>
+        <v>161</v>
       </c>
       <c r="E26" t="s">
-        <v>176</v>
+        <v>291</v>
       </c>
       <c r="F26" t="s">
-        <v>248</v>
+        <v>413</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1796,16 +2462,16 @@
         <v>5</v>
       </c>
       <c r="C27" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D27" t="s">
-        <v>104</v>
+        <v>162</v>
       </c>
       <c r="E27" t="s">
-        <v>177</v>
+        <v>292</v>
       </c>
       <c r="F27" t="s">
-        <v>249</v>
+        <v>414</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1816,16 +2482,16 @@
         <v>5</v>
       </c>
       <c r="C28" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D28" t="s">
-        <v>105</v>
+        <v>163</v>
       </c>
       <c r="E28" t="s">
-        <v>178</v>
+        <v>293</v>
       </c>
       <c r="F28" t="s">
-        <v>250</v>
+        <v>415</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1836,16 +2502,16 @@
         <v>5</v>
       </c>
       <c r="C29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D29" t="s">
-        <v>106</v>
+        <v>164</v>
       </c>
       <c r="E29" t="s">
-        <v>179</v>
+        <v>294</v>
       </c>
       <c r="F29" t="s">
-        <v>251</v>
+        <v>416</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1856,16 +2522,16 @@
         <v>5</v>
       </c>
       <c r="C30" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D30" t="s">
-        <v>107</v>
+        <v>165</v>
       </c>
       <c r="E30" t="s">
-        <v>180</v>
+        <v>295</v>
       </c>
       <c r="F30" t="s">
-        <v>252</v>
+        <v>417</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1876,16 +2542,16 @@
         <v>5</v>
       </c>
       <c r="C31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D31" t="s">
-        <v>108</v>
+        <v>166</v>
       </c>
       <c r="E31" t="s">
-        <v>181</v>
+        <v>296</v>
       </c>
       <c r="F31" t="s">
-        <v>253</v>
+        <v>418</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1896,16 +2562,16 @@
         <v>5</v>
       </c>
       <c r="C32" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D32" t="s">
-        <v>109</v>
+        <v>167</v>
       </c>
       <c r="E32" t="s">
-        <v>182</v>
+        <v>297</v>
       </c>
       <c r="F32" t="s">
-        <v>254</v>
+        <v>419</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1916,16 +2582,16 @@
         <v>5</v>
       </c>
       <c r="C33" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D33" t="s">
-        <v>110</v>
+        <v>168</v>
       </c>
       <c r="E33" t="s">
-        <v>183</v>
+        <v>298</v>
       </c>
       <c r="F33" t="s">
-        <v>255</v>
+        <v>420</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1936,16 +2602,16 @@
         <v>5</v>
       </c>
       <c r="C34" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D34" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="E34" t="s">
-        <v>184</v>
+        <v>299</v>
       </c>
       <c r="F34" t="s">
-        <v>256</v>
+        <v>421</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1956,16 +2622,16 @@
         <v>5</v>
       </c>
       <c r="C35" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D35" t="s">
-        <v>112</v>
+        <v>170</v>
       </c>
       <c r="E35" t="s">
-        <v>185</v>
+        <v>300</v>
       </c>
       <c r="F35" t="s">
-        <v>257</v>
+        <v>422</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1976,16 +2642,16 @@
         <v>5</v>
       </c>
       <c r="C36" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D36" t="s">
-        <v>113</v>
+        <v>171</v>
       </c>
       <c r="E36" t="s">
-        <v>186</v>
+        <v>301</v>
       </c>
       <c r="F36" t="s">
-        <v>258</v>
+        <v>423</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1996,16 +2662,16 @@
         <v>5</v>
       </c>
       <c r="C37" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D37" t="s">
-        <v>114</v>
+        <v>172</v>
       </c>
       <c r="E37" t="s">
-        <v>187</v>
+        <v>302</v>
       </c>
       <c r="F37" t="s">
-        <v>259</v>
+        <v>424</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2016,16 +2682,16 @@
         <v>5</v>
       </c>
       <c r="C38" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D38" t="s">
-        <v>115</v>
+        <v>173</v>
       </c>
       <c r="E38" t="s">
-        <v>188</v>
+        <v>303</v>
       </c>
       <c r="F38" t="s">
-        <v>260</v>
+        <v>425</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2036,16 +2702,16 @@
         <v>5</v>
       </c>
       <c r="C39" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D39" t="s">
-        <v>116</v>
+        <v>174</v>
       </c>
       <c r="E39" t="s">
-        <v>189</v>
+        <v>304</v>
       </c>
       <c r="F39" t="s">
-        <v>261</v>
+        <v>426</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2056,16 +2722,16 @@
         <v>5</v>
       </c>
       <c r="C40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D40" t="s">
-        <v>117</v>
+        <v>175</v>
       </c>
       <c r="E40" t="s">
-        <v>190</v>
+        <v>305</v>
       </c>
       <c r="F40" t="s">
-        <v>262</v>
+        <v>427</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2076,16 +2742,16 @@
         <v>5</v>
       </c>
       <c r="C41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D41" t="s">
-        <v>118</v>
+        <v>176</v>
       </c>
       <c r="E41" t="s">
-        <v>191</v>
+        <v>306</v>
       </c>
       <c r="F41" t="s">
-        <v>263</v>
+        <v>428</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2096,16 +2762,16 @@
         <v>5</v>
       </c>
       <c r="C42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D42" t="s">
-        <v>119</v>
+        <v>177</v>
       </c>
       <c r="E42" t="s">
-        <v>192</v>
+        <v>307</v>
       </c>
       <c r="F42" t="s">
-        <v>264</v>
+        <v>429</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2116,16 +2782,16 @@
         <v>5</v>
       </c>
       <c r="C43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D43" t="s">
-        <v>120</v>
+        <v>178</v>
       </c>
       <c r="E43" t="s">
-        <v>193</v>
+        <v>308</v>
       </c>
       <c r="F43" t="s">
-        <v>265</v>
+        <v>430</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2136,16 +2802,16 @@
         <v>5</v>
       </c>
       <c r="C44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D44" t="s">
-        <v>121</v>
+        <v>179</v>
       </c>
       <c r="E44" t="s">
-        <v>194</v>
+        <v>309</v>
       </c>
       <c r="F44" t="s">
-        <v>266</v>
+        <v>431</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2156,16 +2822,16 @@
         <v>5</v>
       </c>
       <c r="C45" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D45" t="s">
-        <v>122</v>
+        <v>180</v>
       </c>
       <c r="E45" t="s">
-        <v>195</v>
+        <v>310</v>
       </c>
       <c r="F45" t="s">
-        <v>267</v>
+        <v>432</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2176,16 +2842,16 @@
         <v>5</v>
       </c>
       <c r="C46" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D46" t="s">
-        <v>123</v>
+        <v>181</v>
       </c>
       <c r="E46" t="s">
-        <v>196</v>
+        <v>311</v>
       </c>
       <c r="F46" t="s">
-        <v>268</v>
+        <v>433</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2196,16 +2862,16 @@
         <v>5</v>
       </c>
       <c r="C47" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D47" t="s">
-        <v>124</v>
+        <v>182</v>
       </c>
       <c r="E47" t="s">
-        <v>197</v>
+        <v>312</v>
       </c>
       <c r="F47" t="s">
-        <v>269</v>
+        <v>434</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2216,16 +2882,16 @@
         <v>5</v>
       </c>
       <c r="C48" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D48" t="s">
-        <v>125</v>
+        <v>183</v>
       </c>
       <c r="E48" t="s">
-        <v>198</v>
+        <v>313</v>
       </c>
       <c r="F48" t="s">
-        <v>270</v>
+        <v>435</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2236,16 +2902,16 @@
         <v>5</v>
       </c>
       <c r="C49" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D49" t="s">
-        <v>126</v>
+        <v>184</v>
       </c>
       <c r="E49" t="s">
-        <v>199</v>
+        <v>314</v>
       </c>
       <c r="F49" t="s">
-        <v>271</v>
+        <v>436</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2256,16 +2922,16 @@
         <v>5</v>
       </c>
       <c r="C50" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D50" t="s">
-        <v>127</v>
+        <v>185</v>
       </c>
       <c r="E50" t="s">
-        <v>200</v>
+        <v>315</v>
       </c>
       <c r="F50" t="s">
-        <v>272</v>
+        <v>437</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2276,16 +2942,16 @@
         <v>5</v>
       </c>
       <c r="C51" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D51" t="s">
-        <v>128</v>
+        <v>186</v>
       </c>
       <c r="E51" t="s">
-        <v>201</v>
+        <v>316</v>
       </c>
       <c r="F51" t="s">
-        <v>273</v>
+        <v>438</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2296,16 +2962,16 @@
         <v>5</v>
       </c>
       <c r="C52" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D52" t="s">
-        <v>129</v>
+        <v>187</v>
       </c>
       <c r="E52" t="s">
-        <v>202</v>
+        <v>317</v>
       </c>
       <c r="F52" t="s">
-        <v>274</v>
+        <v>439</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2316,16 +2982,16 @@
         <v>5</v>
       </c>
       <c r="C53" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D53" t="s">
-        <v>130</v>
+        <v>188</v>
       </c>
       <c r="E53" t="s">
-        <v>203</v>
+        <v>318</v>
       </c>
       <c r="F53" t="s">
-        <v>275</v>
+        <v>440</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2336,16 +3002,16 @@
         <v>5</v>
       </c>
       <c r="C54" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D54" t="s">
-        <v>131</v>
+        <v>189</v>
       </c>
       <c r="E54" t="s">
-        <v>204</v>
+        <v>319</v>
       </c>
       <c r="F54" t="s">
-        <v>276</v>
+        <v>441</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2356,16 +3022,16 @@
         <v>5</v>
       </c>
       <c r="C55" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D55" t="s">
-        <v>132</v>
+        <v>190</v>
       </c>
       <c r="E55" t="s">
-        <v>205</v>
+        <v>320</v>
       </c>
       <c r="F55" t="s">
-        <v>277</v>
+        <v>442</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2376,16 +3042,16 @@
         <v>5</v>
       </c>
       <c r="C56" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D56" t="s">
-        <v>133</v>
+        <v>191</v>
       </c>
       <c r="E56" t="s">
-        <v>206</v>
+        <v>321</v>
       </c>
       <c r="F56" t="s">
-        <v>278</v>
+        <v>443</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2396,16 +3062,16 @@
         <v>5</v>
       </c>
       <c r="C57" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D57" t="s">
-        <v>134</v>
+        <v>192</v>
       </c>
       <c r="E57" t="s">
-        <v>207</v>
+        <v>322</v>
       </c>
       <c r="F57" t="s">
-        <v>279</v>
+        <v>444</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2416,16 +3082,16 @@
         <v>5</v>
       </c>
       <c r="C58" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D58" t="s">
-        <v>135</v>
+        <v>193</v>
       </c>
       <c r="E58" t="s">
-        <v>208</v>
+        <v>323</v>
       </c>
       <c r="F58" t="s">
-        <v>280</v>
+        <v>445</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2436,16 +3102,16 @@
         <v>5</v>
       </c>
       <c r="C59" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D59" t="s">
-        <v>136</v>
+        <v>194</v>
       </c>
       <c r="E59" t="s">
-        <v>209</v>
+        <v>324</v>
       </c>
       <c r="F59" t="s">
-        <v>281</v>
+        <v>446</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2456,16 +3122,16 @@
         <v>5</v>
       </c>
       <c r="C60" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D60" t="s">
-        <v>137</v>
+        <v>195</v>
       </c>
       <c r="E60" t="s">
-        <v>210</v>
+        <v>325</v>
       </c>
       <c r="F60" t="s">
-        <v>282</v>
+        <v>447</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2476,16 +3142,16 @@
         <v>5</v>
       </c>
       <c r="C61" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D61" t="s">
-        <v>138</v>
+        <v>196</v>
       </c>
       <c r="E61" t="s">
-        <v>211</v>
+        <v>326</v>
       </c>
       <c r="F61" t="s">
-        <v>283</v>
+        <v>448</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2496,16 +3162,16 @@
         <v>5</v>
       </c>
       <c r="C62" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D62" t="s">
-        <v>139</v>
+        <v>197</v>
       </c>
       <c r="E62" t="s">
-        <v>212</v>
+        <v>327</v>
       </c>
       <c r="F62" t="s">
-        <v>284</v>
+        <v>449</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2516,16 +3182,16 @@
         <v>5</v>
       </c>
       <c r="C63" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D63" t="s">
-        <v>140</v>
+        <v>198</v>
       </c>
       <c r="E63" t="s">
-        <v>213</v>
+        <v>328</v>
       </c>
       <c r="F63" t="s">
-        <v>285</v>
+        <v>450</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2536,16 +3202,16 @@
         <v>5</v>
       </c>
       <c r="C64" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D64" t="s">
-        <v>141</v>
+        <v>199</v>
       </c>
       <c r="E64" t="s">
-        <v>214</v>
+        <v>329</v>
       </c>
       <c r="F64" t="s">
-        <v>286</v>
+        <v>451</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2556,16 +3222,16 @@
         <v>5</v>
       </c>
       <c r="C65" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D65" t="s">
-        <v>142</v>
+        <v>200</v>
       </c>
       <c r="E65" t="s">
-        <v>215</v>
+        <v>330</v>
       </c>
       <c r="F65" t="s">
-        <v>287</v>
+        <v>452</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2576,16 +3242,16 @@
         <v>5</v>
       </c>
       <c r="C66" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D66" t="s">
-        <v>143</v>
+        <v>201</v>
       </c>
       <c r="E66" t="s">
-        <v>216</v>
+        <v>331</v>
       </c>
       <c r="F66" t="s">
-        <v>288</v>
+        <v>453</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2596,16 +3262,16 @@
         <v>5</v>
       </c>
       <c r="C67" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D67" t="s">
-        <v>144</v>
+        <v>202</v>
       </c>
       <c r="E67" t="s">
-        <v>217</v>
+        <v>332</v>
       </c>
       <c r="F67" t="s">
-        <v>289</v>
+        <v>454</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2616,16 +3282,16 @@
         <v>5</v>
       </c>
       <c r="C68" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D68" t="s">
-        <v>145</v>
+        <v>203</v>
       </c>
       <c r="E68" t="s">
-        <v>213</v>
+        <v>328</v>
       </c>
       <c r="F68" t="s">
-        <v>290</v>
+        <v>455</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2636,16 +3302,16 @@
         <v>5</v>
       </c>
       <c r="C69" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D69" t="s">
-        <v>146</v>
+        <v>204</v>
       </c>
       <c r="E69" t="s">
-        <v>218</v>
+        <v>333</v>
       </c>
       <c r="F69" t="s">
-        <v>291</v>
+        <v>456</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2656,16 +3322,16 @@
         <v>5</v>
       </c>
       <c r="C70" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D70" t="s">
-        <v>147</v>
+        <v>205</v>
       </c>
       <c r="E70" t="s">
-        <v>213</v>
+        <v>328</v>
       </c>
       <c r="F70" t="s">
-        <v>292</v>
+        <v>457</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2676,16 +3342,16 @@
         <v>5</v>
       </c>
       <c r="C71" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D71" t="s">
-        <v>148</v>
+        <v>206</v>
       </c>
       <c r="E71" t="s">
-        <v>219</v>
+        <v>334</v>
       </c>
       <c r="F71" t="s">
-        <v>293</v>
+        <v>458</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2696,16 +3362,16 @@
         <v>5</v>
       </c>
       <c r="C72" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D72" t="s">
-        <v>149</v>
+        <v>207</v>
       </c>
       <c r="E72" t="s">
-        <v>220</v>
+        <v>335</v>
       </c>
       <c r="F72" t="s">
-        <v>294</v>
+        <v>459</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2716,16 +3382,16 @@
         <v>5</v>
       </c>
       <c r="C73" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D73" t="s">
-        <v>150</v>
+        <v>208</v>
       </c>
       <c r="E73" t="s">
-        <v>221</v>
+        <v>336</v>
       </c>
       <c r="F73" t="s">
-        <v>295</v>
+        <v>460</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2736,16 +3402,16 @@
         <v>5</v>
       </c>
       <c r="C74" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D74" t="s">
-        <v>151</v>
+        <v>209</v>
       </c>
       <c r="E74" t="s">
-        <v>222</v>
+        <v>337</v>
       </c>
       <c r="F74" t="s">
-        <v>296</v>
+        <v>461</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2756,16 +3422,1156 @@
         <v>5</v>
       </c>
       <c r="C75" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D75" t="s">
-        <v>152</v>
+        <v>210</v>
       </c>
       <c r="E75" t="s">
+        <v>338</v>
+      </c>
+      <c r="F75" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="1">
+        <v>83</v>
+      </c>
+      <c r="B76" t="s">
+        <v>6</v>
+      </c>
+      <c r="C76" t="s">
+        <v>80</v>
+      </c>
+      <c r="D76" t="s">
+        <v>211</v>
+      </c>
+      <c r="E76" t="s">
+        <v>339</v>
+      </c>
+      <c r="F76" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="1">
+        <v>84</v>
+      </c>
+      <c r="B77" t="s">
+        <v>6</v>
+      </c>
+      <c r="C77" t="s">
+        <v>81</v>
+      </c>
+      <c r="D77" t="s">
+        <v>212</v>
+      </c>
+      <c r="E77" t="s">
+        <v>340</v>
+      </c>
+      <c r="F77" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="1">
+        <v>85</v>
+      </c>
+      <c r="B78" t="s">
+        <v>6</v>
+      </c>
+      <c r="C78" t="s">
+        <v>82</v>
+      </c>
+      <c r="D78" t="s">
+        <v>213</v>
+      </c>
+      <c r="E78" t="s">
+        <v>341</v>
+      </c>
+      <c r="F78" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="1">
+        <v>86</v>
+      </c>
+      <c r="B79" t="s">
+        <v>6</v>
+      </c>
+      <c r="C79" t="s">
+        <v>83</v>
+      </c>
+      <c r="D79" t="s">
+        <v>214</v>
+      </c>
+      <c r="E79" t="s">
+        <v>342</v>
+      </c>
+      <c r="F79" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="1">
+        <v>87</v>
+      </c>
+      <c r="B80" t="s">
+        <v>6</v>
+      </c>
+      <c r="C80" t="s">
+        <v>84</v>
+      </c>
+      <c r="D80" t="s">
+        <v>215</v>
+      </c>
+      <c r="E80" t="s">
+        <v>343</v>
+      </c>
+      <c r="F80" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="1">
+        <v>89</v>
+      </c>
+      <c r="B81" t="s">
+        <v>6</v>
+      </c>
+      <c r="C81" t="s">
+        <v>85</v>
+      </c>
+      <c r="D81" t="s">
+        <v>216</v>
+      </c>
+      <c r="E81" t="s">
+        <v>344</v>
+      </c>
+      <c r="F81" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="1">
+        <v>90</v>
+      </c>
+      <c r="B82" t="s">
+        <v>6</v>
+      </c>
+      <c r="C82" t="s">
+        <v>86</v>
+      </c>
+      <c r="D82" t="s">
+        <v>217</v>
+      </c>
+      <c r="E82" t="s">
+        <v>345</v>
+      </c>
+      <c r="F82" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="1">
+        <v>91</v>
+      </c>
+      <c r="B83" t="s">
+        <v>6</v>
+      </c>
+      <c r="C83" t="s">
+        <v>87</v>
+      </c>
+      <c r="D83" t="s">
+        <v>218</v>
+      </c>
+      <c r="E83" t="s">
+        <v>346</v>
+      </c>
+      <c r="F83" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="1">
+        <v>92</v>
+      </c>
+      <c r="B84" t="s">
+        <v>6</v>
+      </c>
+      <c r="C84" t="s">
+        <v>88</v>
+      </c>
+      <c r="D84" t="s">
+        <v>219</v>
+      </c>
+      <c r="E84" t="s">
+        <v>347</v>
+      </c>
+      <c r="F84" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="1">
+        <v>93</v>
+      </c>
+      <c r="B85" t="s">
+        <v>6</v>
+      </c>
+      <c r="C85" t="s">
+        <v>89</v>
+      </c>
+      <c r="D85" t="s">
+        <v>220</v>
+      </c>
+      <c r="E85" t="s">
+        <v>348</v>
+      </c>
+      <c r="F85" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="1">
+        <v>94</v>
+      </c>
+      <c r="B86" t="s">
+        <v>6</v>
+      </c>
+      <c r="C86" t="s">
+        <v>90</v>
+      </c>
+      <c r="D86" t="s">
+        <v>221</v>
+      </c>
+      <c r="E86" t="s">
+        <v>349</v>
+      </c>
+      <c r="F86" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="1">
+        <v>96</v>
+      </c>
+      <c r="B87" t="s">
+        <v>6</v>
+      </c>
+      <c r="C87" t="s">
+        <v>91</v>
+      </c>
+      <c r="D87" t="s">
+        <v>222</v>
+      </c>
+      <c r="E87" t="s">
+        <v>350</v>
+      </c>
+      <c r="F87" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="1">
+        <v>98</v>
+      </c>
+      <c r="B88" t="s">
+        <v>6</v>
+      </c>
+      <c r="C88" t="s">
+        <v>92</v>
+      </c>
+      <c r="D88" t="s">
         <v>223</v>
       </c>
-      <c r="F75" t="s">
-        <v>297</v>
+      <c r="E88" t="s">
+        <v>351</v>
+      </c>
+      <c r="F88" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="1">
+        <v>99</v>
+      </c>
+      <c r="B89" t="s">
+        <v>6</v>
+      </c>
+      <c r="C89" t="s">
+        <v>93</v>
+      </c>
+      <c r="D89" t="s">
+        <v>224</v>
+      </c>
+      <c r="E89" t="s">
+        <v>352</v>
+      </c>
+      <c r="F89" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="1">
+        <v>102</v>
+      </c>
+      <c r="B90" t="s">
+        <v>6</v>
+      </c>
+      <c r="C90" t="s">
+        <v>94</v>
+      </c>
+      <c r="D90" t="s">
+        <v>225</v>
+      </c>
+      <c r="E90" t="s">
+        <v>353</v>
+      </c>
+      <c r="F90" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="1">
+        <v>103</v>
+      </c>
+      <c r="B91" t="s">
+        <v>6</v>
+      </c>
+      <c r="C91" t="s">
+        <v>95</v>
+      </c>
+      <c r="D91" t="s">
+        <v>226</v>
+      </c>
+      <c r="E91" t="s">
+        <v>354</v>
+      </c>
+      <c r="F91" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="1">
+        <v>104</v>
+      </c>
+      <c r="B92" t="s">
+        <v>6</v>
+      </c>
+      <c r="C92" t="s">
+        <v>96</v>
+      </c>
+      <c r="D92" t="s">
+        <v>227</v>
+      </c>
+      <c r="E92" t="s">
+        <v>355</v>
+      </c>
+      <c r="F92" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="1">
+        <v>105</v>
+      </c>
+      <c r="B93" t="s">
+        <v>6</v>
+      </c>
+      <c r="C93" t="s">
+        <v>97</v>
+      </c>
+      <c r="D93" t="s">
+        <v>228</v>
+      </c>
+      <c r="E93" t="s">
+        <v>356</v>
+      </c>
+      <c r="F93" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="1">
+        <v>106</v>
+      </c>
+      <c r="B94" t="s">
+        <v>6</v>
+      </c>
+      <c r="C94" t="s">
+        <v>98</v>
+      </c>
+      <c r="D94" t="s">
+        <v>229</v>
+      </c>
+      <c r="E94" t="s">
+        <v>357</v>
+      </c>
+      <c r="F94" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="1">
+        <v>107</v>
+      </c>
+      <c r="B95" t="s">
+        <v>6</v>
+      </c>
+      <c r="C95" t="s">
+        <v>99</v>
+      </c>
+      <c r="D95" t="s">
+        <v>230</v>
+      </c>
+      <c r="E95" t="s">
+        <v>358</v>
+      </c>
+      <c r="F95" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="1">
+        <v>108</v>
+      </c>
+      <c r="B96" t="s">
+        <v>6</v>
+      </c>
+      <c r="C96" t="s">
+        <v>100</v>
+      </c>
+      <c r="D96" t="s">
+        <v>231</v>
+      </c>
+      <c r="E96" t="s">
+        <v>359</v>
+      </c>
+      <c r="F96" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="1">
+        <v>109</v>
+      </c>
+      <c r="B97" t="s">
+        <v>6</v>
+      </c>
+      <c r="C97" t="s">
+        <v>101</v>
+      </c>
+      <c r="D97" t="s">
+        <v>232</v>
+      </c>
+      <c r="E97" t="s">
+        <v>360</v>
+      </c>
+      <c r="F97" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="1">
+        <v>110</v>
+      </c>
+      <c r="B98" t="s">
+        <v>6</v>
+      </c>
+      <c r="C98" t="s">
+        <v>102</v>
+      </c>
+      <c r="D98" t="s">
+        <v>233</v>
+      </c>
+      <c r="E98" t="s">
+        <v>361</v>
+      </c>
+      <c r="F98" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" s="1">
+        <v>111</v>
+      </c>
+      <c r="B99" t="s">
+        <v>6</v>
+      </c>
+      <c r="C99" t="s">
+        <v>103</v>
+      </c>
+      <c r="D99" t="s">
+        <v>234</v>
+      </c>
+      <c r="E99" t="s">
+        <v>362</v>
+      </c>
+      <c r="F99" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" s="1">
+        <v>112</v>
+      </c>
+      <c r="B100" t="s">
+        <v>6</v>
+      </c>
+      <c r="C100" t="s">
+        <v>104</v>
+      </c>
+      <c r="D100" t="s">
+        <v>235</v>
+      </c>
+      <c r="E100" t="s">
+        <v>363</v>
+      </c>
+      <c r="F100" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" s="1">
+        <v>113</v>
+      </c>
+      <c r="B101" t="s">
+        <v>6</v>
+      </c>
+      <c r="C101" t="s">
+        <v>105</v>
+      </c>
+      <c r="D101" t="s">
+        <v>236</v>
+      </c>
+      <c r="E101" t="s">
+        <v>364</v>
+      </c>
+      <c r="F101" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" s="1">
+        <v>114</v>
+      </c>
+      <c r="B102" t="s">
+        <v>6</v>
+      </c>
+      <c r="C102" t="s">
+        <v>106</v>
+      </c>
+      <c r="D102" t="s">
+        <v>237</v>
+      </c>
+      <c r="E102" t="s">
+        <v>291</v>
+      </c>
+      <c r="F102" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" s="1">
+        <v>115</v>
+      </c>
+      <c r="B103" t="s">
+        <v>6</v>
+      </c>
+      <c r="C103" t="s">
+        <v>107</v>
+      </c>
+      <c r="D103" t="s">
+        <v>238</v>
+      </c>
+      <c r="E103" t="s">
+        <v>286</v>
+      </c>
+      <c r="F103" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" s="1">
+        <v>116</v>
+      </c>
+      <c r="B104" t="s">
+        <v>6</v>
+      </c>
+      <c r="C104" t="s">
+        <v>108</v>
+      </c>
+      <c r="D104" t="s">
+        <v>239</v>
+      </c>
+      <c r="E104" t="s">
+        <v>365</v>
+      </c>
+      <c r="F104" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" s="1">
+        <v>117</v>
+      </c>
+      <c r="B105" t="s">
+        <v>6</v>
+      </c>
+      <c r="C105" t="s">
+        <v>109</v>
+      </c>
+      <c r="D105" t="s">
+        <v>240</v>
+      </c>
+      <c r="E105" t="s">
+        <v>286</v>
+      </c>
+      <c r="F105" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" s="1">
+        <v>118</v>
+      </c>
+      <c r="B106" t="s">
+        <v>6</v>
+      </c>
+      <c r="C106" t="s">
+        <v>110</v>
+      </c>
+      <c r="D106" t="s">
+        <v>241</v>
+      </c>
+      <c r="E106" t="s">
+        <v>291</v>
+      </c>
+      <c r="F106" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" s="1">
+        <v>119</v>
+      </c>
+      <c r="B107" t="s">
+        <v>6</v>
+      </c>
+      <c r="C107" t="s">
+        <v>111</v>
+      </c>
+      <c r="D107" t="s">
+        <v>242</v>
+      </c>
+      <c r="E107" t="s">
+        <v>366</v>
+      </c>
+      <c r="F107" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" s="1">
+        <v>120</v>
+      </c>
+      <c r="B108" t="s">
+        <v>6</v>
+      </c>
+      <c r="C108" t="s">
+        <v>112</v>
+      </c>
+      <c r="D108" t="s">
+        <v>243</v>
+      </c>
+      <c r="E108" t="s">
+        <v>367</v>
+      </c>
+      <c r="F108" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" s="1">
+        <v>121</v>
+      </c>
+      <c r="B109" t="s">
+        <v>6</v>
+      </c>
+      <c r="C109" t="s">
+        <v>113</v>
+      </c>
+      <c r="D109" t="s">
+        <v>244</v>
+      </c>
+      <c r="E109" t="s">
+        <v>368</v>
+      </c>
+      <c r="F109" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" s="1">
+        <v>122</v>
+      </c>
+      <c r="B110" t="s">
+        <v>6</v>
+      </c>
+      <c r="C110" t="s">
+        <v>114</v>
+      </c>
+      <c r="D110" t="s">
+        <v>245</v>
+      </c>
+      <c r="E110" t="s">
+        <v>347</v>
+      </c>
+      <c r="F110" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" s="1">
+        <v>123</v>
+      </c>
+      <c r="B111" t="s">
+        <v>6</v>
+      </c>
+      <c r="C111" t="s">
+        <v>115</v>
+      </c>
+      <c r="D111" t="s">
+        <v>246</v>
+      </c>
+      <c r="E111" t="s">
+        <v>369</v>
+      </c>
+      <c r="F111" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" s="1">
+        <v>124</v>
+      </c>
+      <c r="B112" t="s">
+        <v>6</v>
+      </c>
+      <c r="C112" t="s">
+        <v>116</v>
+      </c>
+      <c r="D112" t="s">
+        <v>247</v>
+      </c>
+      <c r="E112" t="s">
+        <v>370</v>
+      </c>
+      <c r="F112" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" s="1">
+        <v>125</v>
+      </c>
+      <c r="B113" t="s">
+        <v>6</v>
+      </c>
+      <c r="C113" t="s">
+        <v>117</v>
+      </c>
+      <c r="D113" t="s">
+        <v>248</v>
+      </c>
+      <c r="E113" t="s">
+        <v>371</v>
+      </c>
+      <c r="F113" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" s="1">
+        <v>126</v>
+      </c>
+      <c r="B114" t="s">
+        <v>6</v>
+      </c>
+      <c r="C114" t="s">
+        <v>118</v>
+      </c>
+      <c r="D114" t="s">
+        <v>249</v>
+      </c>
+      <c r="E114" t="s">
+        <v>372</v>
+      </c>
+      <c r="F114" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" s="1">
+        <v>127</v>
+      </c>
+      <c r="B115" t="s">
+        <v>6</v>
+      </c>
+      <c r="C115" t="s">
+        <v>119</v>
+      </c>
+      <c r="D115" t="s">
+        <v>250</v>
+      </c>
+      <c r="E115" t="s">
+        <v>373</v>
+      </c>
+      <c r="F115" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" s="1">
+        <v>128</v>
+      </c>
+      <c r="B116" t="s">
+        <v>6</v>
+      </c>
+      <c r="C116" t="s">
+        <v>120</v>
+      </c>
+      <c r="D116" t="s">
+        <v>251</v>
+      </c>
+      <c r="E116" t="s">
+        <v>374</v>
+      </c>
+      <c r="F116" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" s="1">
+        <v>129</v>
+      </c>
+      <c r="B117" t="s">
+        <v>6</v>
+      </c>
+      <c r="C117" t="s">
+        <v>121</v>
+      </c>
+      <c r="D117" t="s">
+        <v>252</v>
+      </c>
+      <c r="E117" t="s">
+        <v>375</v>
+      </c>
+      <c r="F117" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" s="1">
+        <v>130</v>
+      </c>
+      <c r="B118" t="s">
+        <v>6</v>
+      </c>
+      <c r="C118" t="s">
+        <v>122</v>
+      </c>
+      <c r="D118" t="s">
+        <v>253</v>
+      </c>
+      <c r="E118" t="s">
+        <v>272</v>
+      </c>
+      <c r="F118" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" s="1">
+        <v>131</v>
+      </c>
+      <c r="B119" t="s">
+        <v>6</v>
+      </c>
+      <c r="C119" t="s">
+        <v>123</v>
+      </c>
+      <c r="D119" t="s">
+        <v>254</v>
+      </c>
+      <c r="E119" t="s">
+        <v>376</v>
+      </c>
+      <c r="F119" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" s="1">
+        <v>132</v>
+      </c>
+      <c r="B120" t="s">
+        <v>6</v>
+      </c>
+      <c r="C120" t="s">
+        <v>124</v>
+      </c>
+      <c r="D120" t="s">
+        <v>255</v>
+      </c>
+      <c r="E120" t="s">
+        <v>377</v>
+      </c>
+      <c r="F120" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" s="1">
+        <v>133</v>
+      </c>
+      <c r="B121" t="s">
+        <v>6</v>
+      </c>
+      <c r="C121" t="s">
+        <v>125</v>
+      </c>
+      <c r="D121" t="s">
+        <v>256</v>
+      </c>
+      <c r="E121" t="s">
+        <v>378</v>
+      </c>
+      <c r="F121" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" s="1">
+        <v>134</v>
+      </c>
+      <c r="B122" t="s">
+        <v>6</v>
+      </c>
+      <c r="C122" t="s">
+        <v>126</v>
+      </c>
+      <c r="D122" t="s">
+        <v>257</v>
+      </c>
+      <c r="E122" t="s">
+        <v>379</v>
+      </c>
+      <c r="F122" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" s="1">
+        <v>135</v>
+      </c>
+      <c r="B123" t="s">
+        <v>6</v>
+      </c>
+      <c r="C123" t="s">
+        <v>127</v>
+      </c>
+      <c r="D123" t="s">
+        <v>258</v>
+      </c>
+      <c r="E123" t="s">
+        <v>380</v>
+      </c>
+      <c r="F123" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" s="1">
+        <v>136</v>
+      </c>
+      <c r="B124" t="s">
+        <v>6</v>
+      </c>
+      <c r="C124" t="s">
+        <v>128</v>
+      </c>
+      <c r="D124" t="s">
+        <v>259</v>
+      </c>
+      <c r="E124" t="s">
+        <v>381</v>
+      </c>
+      <c r="F124" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" s="1">
+        <v>137</v>
+      </c>
+      <c r="B125" t="s">
+        <v>6</v>
+      </c>
+      <c r="C125" t="s">
+        <v>129</v>
+      </c>
+      <c r="D125" t="s">
+        <v>260</v>
+      </c>
+      <c r="E125" t="s">
+        <v>382</v>
+      </c>
+      <c r="F125" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" s="1">
+        <v>138</v>
+      </c>
+      <c r="B126" t="s">
+        <v>6</v>
+      </c>
+      <c r="C126" t="s">
+        <v>130</v>
+      </c>
+      <c r="D126" t="s">
+        <v>261</v>
+      </c>
+      <c r="E126" t="s">
+        <v>383</v>
+      </c>
+      <c r="F126" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" s="1">
+        <v>139</v>
+      </c>
+      <c r="B127" t="s">
+        <v>6</v>
+      </c>
+      <c r="C127" t="s">
+        <v>131</v>
+      </c>
+      <c r="D127" t="s">
+        <v>262</v>
+      </c>
+      <c r="E127" t="s">
+        <v>384</v>
+      </c>
+      <c r="F127" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128" s="1">
+        <v>140</v>
+      </c>
+      <c r="B128" t="s">
+        <v>6</v>
+      </c>
+      <c r="C128" t="s">
+        <v>132</v>
+      </c>
+      <c r="D128" t="s">
+        <v>263</v>
+      </c>
+      <c r="E128" t="s">
+        <v>385</v>
+      </c>
+      <c r="F128" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129" s="1">
+        <v>141</v>
+      </c>
+      <c r="B129" t="s">
+        <v>6</v>
+      </c>
+      <c r="C129" t="s">
+        <v>133</v>
+      </c>
+      <c r="D129" t="s">
+        <v>264</v>
+      </c>
+      <c r="E129" t="s">
+        <v>386</v>
+      </c>
+      <c r="F129" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130" s="1">
+        <v>142</v>
+      </c>
+      <c r="B130" t="s">
+        <v>6</v>
+      </c>
+      <c r="C130" t="s">
+        <v>134</v>
+      </c>
+      <c r="D130" t="s">
+        <v>265</v>
+      </c>
+      <c r="E130" t="s">
+        <v>387</v>
+      </c>
+      <c r="F130" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131" s="1">
+        <v>143</v>
+      </c>
+      <c r="B131" t="s">
+        <v>6</v>
+      </c>
+      <c r="C131" t="s">
+        <v>135</v>
+      </c>
+      <c r="D131" t="s">
+        <v>266</v>
+      </c>
+      <c r="E131" t="s">
+        <v>359</v>
+      </c>
+      <c r="F131" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132" s="1">
+        <v>144</v>
+      </c>
+      <c r="B132" t="s">
+        <v>6</v>
+      </c>
+      <c r="C132" t="s">
+        <v>136</v>
+      </c>
+      <c r="D132" t="s">
+        <v>267</v>
+      </c>
+      <c r="E132" t="s">
+        <v>388</v>
+      </c>
+      <c r="F132" t="s">
+        <v>519</v>
       </c>
     </row>
   </sheetData>
